--- a/lecture/WiSe_Spezielle_Statistik/bikes.xlsx
+++ b/lecture/WiSe_Spezielle_Statistik/bikes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\teaching\lecture\WiSe_Spezielle_Statistik\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/teaching/lecture/WiSe_Spezielle_Statistik/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AAE616-6BF8-43B4-8EC6-7C11A18F9C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAD57E9-6B20-CA45-B27D-F87BDAB14085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12220" yWindow="840" windowWidth="23720" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -50,12 +50,6 @@
     <t>anzahl_tag</t>
   </si>
   <si>
-    <t>anmerkung</t>
-  </si>
-  <si>
-    <t>unscharf</t>
-  </si>
-  <si>
     <t>tag_im_Jahr</t>
   </si>
   <si>
@@ -64,11 +58,20 @@
   <si>
     <t>temp</t>
   </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>kw</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="dddd"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -98,10 +101,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -382,665 +386,979 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>260</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
+        <f>WEEKNUM(D2)</f>
+        <v>38</v>
+      </c>
+      <c r="C2" s="3">
         <v>45551</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="1">
+        <v>45551</v>
+      </c>
+      <c r="E2" s="2">
         <v>0.34652777777777777</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>187</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>771920</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>261</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
+        <f t="shared" ref="B3:B32" si="0">WEEKNUM(D3)</f>
+        <v>38</v>
+      </c>
+      <c r="C3" s="3">
         <v>45552</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="1">
+        <v>45552</v>
+      </c>
+      <c r="E3" s="2">
         <v>0.34861111111111109</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>311</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>774630</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>262</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C4" s="3">
         <v>45553</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="1">
+        <v>45553</v>
+      </c>
+      <c r="E4" s="2">
         <v>0.34583333333333333</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>206</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>777100</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>263</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C5" s="3">
         <v>45554</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="1">
+        <v>45554</v>
+      </c>
+      <c r="E5" s="2">
         <v>0.34583333333333333</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>180</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>779552</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>264</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C6" s="3">
         <v>45555</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="1">
+        <v>45555</v>
+      </c>
+      <c r="E6" s="2">
         <v>0.34444444444444444</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>289</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>782117</v>
       </c>
-      <c r="F6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>267</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C7" s="3">
         <v>45558</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="1">
+        <v>45558</v>
+      </c>
+      <c r="E7" s="2">
         <v>0.34583333333333333</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>180</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>788818</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>268</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C8" s="3">
         <v>45559</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="1">
+        <v>45559</v>
+      </c>
+      <c r="E8" s="2">
         <v>0.82222222222222219</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>2134</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>792981</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>274</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C9" s="3">
         <v>45565</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="1">
+        <v>45565</v>
+      </c>
+      <c r="E9" s="2">
         <v>0.34583333333333333</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>700</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>803367</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>275</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C10" s="3">
         <v>45566</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E10" s="2">
         <v>0.34583333333333333</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>139</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>805717</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>276</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C11" s="3">
         <v>45567</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="1">
+        <v>45567</v>
+      </c>
+      <c r="E11" s="2">
         <v>0.37847222222222221</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>446</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>807527</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>281</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C12" s="3">
         <v>45572</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="1">
+        <v>45572</v>
+      </c>
+      <c r="E12" s="2">
         <v>0.35138888888888886</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>144</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>816591</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>282</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C13" s="3">
         <v>45573</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="1">
+        <v>45573</v>
+      </c>
+      <c r="E13" s="2">
         <v>0.34583333333333333</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>123</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>818737</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>283</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C14" s="3">
         <v>45574</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D14" s="1">
+        <v>45574</v>
+      </c>
+      <c r="E14" s="2">
         <v>0.34097222222222223</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>242</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>820601</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>284</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C15" s="3">
         <v>45575</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D15" s="1">
+        <v>45575</v>
+      </c>
+      <c r="E15" s="2">
         <v>0.34722222222222221</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>259</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>822262</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>285</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C16" s="3">
         <v>45576</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D16" s="1">
+        <v>45576</v>
+      </c>
+      <c r="E16" s="2">
         <v>0.34583333333333333</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>241</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>824183</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
       <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>289</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C17" s="3">
         <v>45580</v>
       </c>
-      <c r="C17" s="2">
+      <c r="D17" s="1">
+        <v>45580</v>
+      </c>
+      <c r="E17" s="2">
         <v>0.34722222222222221</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>476</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>830875</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>291</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C18" s="3">
         <v>45582</v>
       </c>
-      <c r="C18" s="2">
+      <c r="D18" s="1">
+        <v>45582</v>
+      </c>
+      <c r="E18" s="2">
         <v>0.34097222222222223</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>316</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>836296</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>295</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C19" s="3">
         <v>45586</v>
       </c>
-      <c r="C19" s="2">
+      <c r="D19" s="1">
+        <v>45586</v>
+      </c>
+      <c r="E19" s="2">
         <v>0.34583333333333333</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>124</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>842875</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>296</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C20" s="3">
         <v>45587</v>
       </c>
-      <c r="C20" s="2">
+      <c r="D20" s="1">
+        <v>45587</v>
+      </c>
+      <c r="E20" s="2">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>600</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>845257</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
       <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>297</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C21" s="3">
         <v>45588</v>
       </c>
-      <c r="C21" s="2">
+      <c r="D21" s="1">
+        <v>45588</v>
+      </c>
+      <c r="E21" s="2">
         <v>0.34861111111111109</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>204</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>847829</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>298</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C22" s="3">
         <v>45589</v>
       </c>
-      <c r="C22" s="2">
+      <c r="D22" s="1">
+        <v>45589</v>
+      </c>
+      <c r="E22" s="2">
         <v>0.36249999999999999</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>493</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>850522</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
       <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>303</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C23" s="3">
         <v>45594</v>
       </c>
-      <c r="C23" s="2">
+      <c r="D23" s="1">
+        <v>45594</v>
+      </c>
+      <c r="E23" s="2">
         <v>0.38263888888888886</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>257</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>860815</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>304</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C24" s="3">
         <v>45595</v>
       </c>
-      <c r="C24" s="2">
+      <c r="D24" s="1">
+        <v>45595</v>
+      </c>
+      <c r="E24" s="2">
         <v>0.35138888888888886</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>179</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>862835</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
       <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>306</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C25" s="3">
         <v>45597</v>
       </c>
-      <c r="C25" s="2">
+      <c r="D25" s="1">
+        <v>45597</v>
+      </c>
+      <c r="E25" s="2">
         <v>0.35</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>115</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>865712</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
       <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>309</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C26" s="3">
         <v>45600</v>
       </c>
-      <c r="C26" s="2">
+      <c r="D26" s="1">
+        <v>45600</v>
+      </c>
+      <c r="E26" s="2">
         <v>0.35486111111111113</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <v>815</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>870928</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>310</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C27" s="3">
         <v>45601</v>
       </c>
-      <c r="C27" s="2">
+      <c r="D27" s="1">
+        <v>45601</v>
+      </c>
+      <c r="E27" s="2">
         <v>0.35208333333333336</v>
       </c>
-      <c r="D27">
+      <c r="F27">
         <v>382</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>874097</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
       <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>310</v>
-      </c>
-      <c r="B28" s="1">
-        <v>45601</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0.38194444444444442</v>
-      </c>
-      <c r="D28">
-        <v>474</v>
-      </c>
-      <c r="E28">
-        <v>874189</v>
+        <v>311</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C28" s="3">
+        <v>45602</v>
+      </c>
+      <c r="D28" s="1">
+        <v>45602</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="F28">
+        <v>876</v>
       </c>
       <c r="G28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>877183</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>311</v>
-      </c>
-      <c r="B29" s="1">
-        <v>45602</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0.36805555555555558</v>
-      </c>
-      <c r="D29">
-        <v>876</v>
-      </c>
-      <c r="E29">
-        <v>877183</v>
+        <v>312</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C29" s="3">
+        <v>45603</v>
+      </c>
+      <c r="D29" s="1">
+        <v>45603</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.35138888888888886</v>
+      </c>
+      <c r="F29">
+        <v>315</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>880089</v>
       </c>
       <c r="H29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>312</v>
-      </c>
-      <c r="B30" s="1">
-        <v>45603</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0.35138888888888886</v>
-      </c>
-      <c r="D30">
+        <v>313</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C30" s="3">
+        <v>45604</v>
+      </c>
+      <c r="D30" s="1">
+        <v>45604</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="F30">
+        <v>1321</v>
+      </c>
+      <c r="G30">
+        <v>883900</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>315</v>
       </c>
-      <c r="E30">
-        <v>880089</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>4</v>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C31" s="3">
+        <v>45607</v>
+      </c>
+      <c r="D31" s="1">
+        <v>45607</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="F31">
+        <v>148</v>
+      </c>
+      <c r="G31">
+        <v>887709</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>316</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C32" s="3">
+        <v>45608</v>
+      </c>
+      <c r="D32" s="1">
+        <v>45608</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.34652777777777777</v>
+      </c>
+      <c r="F32">
+        <v>171</v>
+      </c>
+      <c r="G32">
+        <v>889498</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/lecture/WiSe_Spezielle_Statistik/bikes.xlsx
+++ b/lecture/WiSe_Spezielle_Statistik/bikes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/teaching/lecture/WiSe_Spezielle_Statistik/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAD57E9-6B20-CA45-B27D-F87BDAB14085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B77F01-1F86-1843-BBCA-3EA9D069413F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12220" yWindow="840" windowWidth="23720" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dddd"/>
+    <numFmt numFmtId="164" formatCode="dddd"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -105,7 +105,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -466,7 +466,7 @@
         <v>261</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B32" si="0">WEEKNUM(D3)</f>
+        <f t="shared" ref="B3:B33" si="0">WEEKNUM(D3)</f>
         <v>38</v>
       </c>
       <c r="C3" s="3">
@@ -1359,6 +1359,36 @@
       </c>
       <c r="I32">
         <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>317</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C33" s="3">
+        <v>45609</v>
+      </c>
+      <c r="D33" s="1">
+        <v>45609</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.34861111111111109</v>
+      </c>
+      <c r="F33">
+        <v>171</v>
+      </c>
+      <c r="G33">
+        <v>891686</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/lecture/WiSe_Spezielle_Statistik/bikes.xlsx
+++ b/lecture/WiSe_Spezielle_Statistik/bikes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/teaching/lecture/WiSe_Spezielle_Statistik/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B77F01-1F86-1843-BBCA-3EA9D069413F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C39ACAB-BF04-EC49-BAB2-DC4FA1DF608C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12220" yWindow="840" windowWidth="23720" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -386,16 +386,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
@@ -409,7 +410,7 @@
       <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D1" t="s">
@@ -440,6 +441,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="3">
+        <f>D2</f>
         <v>45551</v>
       </c>
       <c r="D2" s="1">
@@ -466,10 +468,11 @@
         <v>261</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B33" si="0">WEEKNUM(D3)</f>
+        <f t="shared" ref="B3:B35" si="0">WEEKNUM(D3)</f>
         <v>38</v>
       </c>
       <c r="C3" s="3">
+        <f t="shared" ref="C3:C45" si="1">D3</f>
         <v>45552</v>
       </c>
       <c r="D3" s="1">
@@ -500,6 +503,7 @@
         <v>38</v>
       </c>
       <c r="C4" s="3">
+        <f t="shared" si="1"/>
         <v>45553</v>
       </c>
       <c r="D4" s="1">
@@ -530,6 +534,7 @@
         <v>38</v>
       </c>
       <c r="C5" s="3">
+        <f t="shared" si="1"/>
         <v>45554</v>
       </c>
       <c r="D5" s="1">
@@ -560,6 +565,7 @@
         <v>38</v>
       </c>
       <c r="C6" s="3">
+        <f t="shared" si="1"/>
         <v>45555</v>
       </c>
       <c r="D6" s="1">
@@ -590,6 +596,7 @@
         <v>39</v>
       </c>
       <c r="C7" s="3">
+        <f t="shared" si="1"/>
         <v>45558</v>
       </c>
       <c r="D7" s="1">
@@ -620,6 +627,7 @@
         <v>39</v>
       </c>
       <c r="C8" s="3">
+        <f t="shared" si="1"/>
         <v>45559</v>
       </c>
       <c r="D8" s="1">
@@ -650,6 +658,7 @@
         <v>40</v>
       </c>
       <c r="C9" s="3">
+        <f t="shared" si="1"/>
         <v>45565</v>
       </c>
       <c r="D9" s="1">
@@ -680,6 +689,7 @@
         <v>40</v>
       </c>
       <c r="C10" s="3">
+        <f t="shared" si="1"/>
         <v>45566</v>
       </c>
       <c r="D10" s="1">
@@ -710,6 +720,7 @@
         <v>40</v>
       </c>
       <c r="C11" s="3">
+        <f t="shared" si="1"/>
         <v>45567</v>
       </c>
       <c r="D11" s="1">
@@ -1389,6 +1400,67 @@
       </c>
       <c r="I33">
         <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>318</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C34" s="3">
+        <f>D34</f>
+        <v>45610</v>
+      </c>
+      <c r="D34" s="1">
+        <v>45610</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.34513888888888888</v>
+      </c>
+      <c r="F34">
+        <v>207</v>
+      </c>
+      <c r="G34">
+        <v>893691</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>319</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C35" s="3">
+        <v>45611</v>
+      </c>
+      <c r="D35" s="1">
+        <v>45611</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.38055555555555554</v>
+      </c>
+      <c r="F35">
+        <v>226</v>
+      </c>
+      <c r="G35">
+        <v>896232</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/lecture/WiSe_Spezielle_Statistik/bikes.xlsx
+++ b/lecture/WiSe_Spezielle_Statistik/bikes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/teaching/lecture/WiSe_Spezielle_Statistik/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C39ACAB-BF04-EC49-BAB2-DC4FA1DF608C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB66677-ADEB-DF49-92B0-A0D4A02F90A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12220" yWindow="840" windowWidth="23720" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -386,18 +386,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
@@ -405,19 +405,19 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -433,22 +433,23 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="1">
+        <v>45551</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.34652777777777777</v>
+      </c>
+      <c r="C2" s="3">
+        <f>A2</f>
+        <v>45551</v>
+      </c>
+      <c r="D2">
+        <f>A2-DATE(YEAR(A2),1,1)+1</f>
         <v>260</v>
       </c>
-      <c r="B2">
-        <f>WEEKNUM(D2)</f>
+      <c r="E2">
+        <f>WEEKNUM(A2)</f>
         <v>38</v>
-      </c>
-      <c r="C2" s="3">
-        <f>D2</f>
-        <v>45551</v>
-      </c>
-      <c r="D2" s="1">
-        <v>45551</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.34652777777777777</v>
       </c>
       <c r="F2">
         <v>187</v>
@@ -464,22 +465,23 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="1">
+        <v>45552</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.34861111111111109</v>
+      </c>
+      <c r="C3" s="3">
+        <f>A3</f>
+        <v>45552</v>
+      </c>
+      <c r="D3">
+        <f>A3-DATE(YEAR(A3),1,1)+1</f>
         <v>261</v>
       </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B35" si="0">WEEKNUM(D3)</f>
+      <c r="E3">
+        <f>WEEKNUM(A3)</f>
         <v>38</v>
-      </c>
-      <c r="C3" s="3">
-        <f t="shared" ref="C3:C45" si="1">D3</f>
-        <v>45552</v>
-      </c>
-      <c r="D3" s="1">
-        <v>45552</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.34861111111111109</v>
       </c>
       <c r="F3">
         <v>311</v>
@@ -495,22 +497,23 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="1">
+        <v>45553</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.34583333333333333</v>
+      </c>
+      <c r="C4" s="3">
+        <f>A4</f>
+        <v>45553</v>
+      </c>
+      <c r="D4">
+        <f>A4-DATE(YEAR(A4),1,1)+1</f>
         <v>262</v>
       </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
+      <c r="E4">
+        <f>WEEKNUM(A4)</f>
         <v>38</v>
-      </c>
-      <c r="C4" s="3">
-        <f t="shared" si="1"/>
-        <v>45553</v>
-      </c>
-      <c r="D4" s="1">
-        <v>45553</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.34583333333333333</v>
       </c>
       <c r="F4">
         <v>206</v>
@@ -526,22 +529,23 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="1">
+        <v>45554</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.34583333333333333</v>
+      </c>
+      <c r="C5" s="3">
+        <f>A5</f>
+        <v>45554</v>
+      </c>
+      <c r="D5">
+        <f>A5-DATE(YEAR(A5),1,1)+1</f>
         <v>263</v>
       </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
+      <c r="E5">
+        <f>WEEKNUM(A5)</f>
         <v>38</v>
-      </c>
-      <c r="C5" s="3">
-        <f t="shared" si="1"/>
-        <v>45554</v>
-      </c>
-      <c r="D5" s="1">
-        <v>45554</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.34583333333333333</v>
       </c>
       <c r="F5">
         <v>180</v>
@@ -557,22 +561,23 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.34444444444444444</v>
+      </c>
+      <c r="C6" s="3">
+        <f>A6</f>
+        <v>45555</v>
+      </c>
+      <c r="D6">
+        <f>A6-DATE(YEAR(A6),1,1)+1</f>
         <v>264</v>
       </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
+      <c r="E6">
+        <f>WEEKNUM(A6)</f>
         <v>38</v>
-      </c>
-      <c r="C6" s="3">
-        <f t="shared" si="1"/>
-        <v>45555</v>
-      </c>
-      <c r="D6" s="1">
-        <v>45555</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.34444444444444444</v>
       </c>
       <c r="F6">
         <v>289</v>
@@ -588,22 +593,23 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="1">
+        <v>45558</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.34583333333333333</v>
+      </c>
+      <c r="C7" s="3">
+        <f>A7</f>
+        <v>45558</v>
+      </c>
+      <c r="D7">
+        <f>A7-DATE(YEAR(A7),1,1)+1</f>
         <v>267</v>
       </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
+      <c r="E7">
+        <f>WEEKNUM(A7)</f>
         <v>39</v>
-      </c>
-      <c r="C7" s="3">
-        <f t="shared" si="1"/>
-        <v>45558</v>
-      </c>
-      <c r="D7" s="1">
-        <v>45558</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.34583333333333333</v>
       </c>
       <c r="F7">
         <v>180</v>
@@ -619,22 +625,23 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="1">
+        <v>45559</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.82222222222222219</v>
+      </c>
+      <c r="C8" s="3">
+        <f>A8</f>
+        <v>45559</v>
+      </c>
+      <c r="D8">
+        <f>A8-DATE(YEAR(A8),1,1)+1</f>
         <v>268</v>
       </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
+      <c r="E8">
+        <f>WEEKNUM(A8)</f>
         <v>39</v>
-      </c>
-      <c r="C8" s="3">
-        <f t="shared" si="1"/>
-        <v>45559</v>
-      </c>
-      <c r="D8" s="1">
-        <v>45559</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.82222222222222219</v>
       </c>
       <c r="F8">
         <v>2134</v>
@@ -650,22 +657,23 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.34583333333333333</v>
+      </c>
+      <c r="C9" s="3">
+        <f>A9</f>
+        <v>45565</v>
+      </c>
+      <c r="D9">
+        <f>A9-DATE(YEAR(A9),1,1)+1</f>
         <v>274</v>
       </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
+      <c r="E9">
+        <f>WEEKNUM(A9)</f>
         <v>40</v>
-      </c>
-      <c r="C9" s="3">
-        <f t="shared" si="1"/>
-        <v>45565</v>
-      </c>
-      <c r="D9" s="1">
-        <v>45565</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.34583333333333333</v>
       </c>
       <c r="F9">
         <v>700</v>
@@ -681,22 +689,23 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.34583333333333333</v>
+      </c>
+      <c r="C10" s="3">
+        <f>A10</f>
+        <v>45566</v>
+      </c>
+      <c r="D10">
+        <f>A10-DATE(YEAR(A10),1,1)+1</f>
         <v>275</v>
       </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
+      <c r="E10">
+        <f>WEEKNUM(A10)</f>
         <v>40</v>
-      </c>
-      <c r="C10" s="3">
-        <f t="shared" si="1"/>
-        <v>45566</v>
-      </c>
-      <c r="D10" s="1">
-        <v>45566</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.34583333333333333</v>
       </c>
       <c r="F10">
         <v>139</v>
@@ -712,22 +721,23 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="1">
+        <v>45567</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.37847222222222221</v>
+      </c>
+      <c r="C11" s="3">
+        <f>A11</f>
+        <v>45567</v>
+      </c>
+      <c r="D11">
+        <f>A11-DATE(YEAR(A11),1,1)+1</f>
         <v>276</v>
       </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
+      <c r="E11">
+        <f>WEEKNUM(A11)</f>
         <v>40</v>
-      </c>
-      <c r="C11" s="3">
-        <f t="shared" si="1"/>
-        <v>45567</v>
-      </c>
-      <c r="D11" s="1">
-        <v>45567</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.37847222222222221</v>
       </c>
       <c r="F11">
         <v>446</v>
@@ -743,21 +753,22 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>281</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>41</v>
+      <c r="A12" s="1">
+        <v>45572</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.35138888888888886</v>
       </c>
       <c r="C12" s="3">
         <v>45572</v>
       </c>
-      <c r="D12" s="1">
-        <v>45572</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.35138888888888886</v>
+      <c r="D12">
+        <f>A12-DATE(YEAR(A12),1,1)+1</f>
+        <v>281</v>
+      </c>
+      <c r="E12">
+        <f>WEEKNUM(A12)</f>
+        <v>41</v>
       </c>
       <c r="F12">
         <v>144</v>
@@ -773,21 +784,22 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>282</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>41</v>
+      <c r="A13" s="1">
+        <v>45573</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.34583333333333333</v>
       </c>
       <c r="C13" s="3">
         <v>45573</v>
       </c>
-      <c r="D13" s="1">
-        <v>45573</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.34583333333333333</v>
+      <c r="D13">
+        <f>A13-DATE(YEAR(A13),1,1)+1</f>
+        <v>282</v>
+      </c>
+      <c r="E13">
+        <f>WEEKNUM(A13)</f>
+        <v>41</v>
       </c>
       <c r="F13">
         <v>123</v>
@@ -803,21 +815,22 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>283</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>41</v>
+      <c r="A14" s="1">
+        <v>45574</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.34097222222222223</v>
       </c>
       <c r="C14" s="3">
         <v>45574</v>
       </c>
-      <c r="D14" s="1">
-        <v>45574</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.34097222222222223</v>
+      <c r="D14">
+        <f>A14-DATE(YEAR(A14),1,1)+1</f>
+        <v>283</v>
+      </c>
+      <c r="E14">
+        <f>WEEKNUM(A14)</f>
+        <v>41</v>
       </c>
       <c r="F14">
         <v>242</v>
@@ -833,21 +846,22 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>284</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>41</v>
+      <c r="A15" s="1">
+        <v>45575</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.34722222222222221</v>
       </c>
       <c r="C15" s="3">
         <v>45575</v>
       </c>
-      <c r="D15" s="1">
-        <v>45575</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.34722222222222221</v>
+      <c r="D15">
+        <f>A15-DATE(YEAR(A15),1,1)+1</f>
+        <v>284</v>
+      </c>
+      <c r="E15">
+        <f>WEEKNUM(A15)</f>
+        <v>41</v>
       </c>
       <c r="F15">
         <v>259</v>
@@ -863,21 +877,22 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>285</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>41</v>
+      <c r="A16" s="1">
+        <v>45576</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.34583333333333333</v>
       </c>
       <c r="C16" s="3">
         <v>45576</v>
       </c>
-      <c r="D16" s="1">
-        <v>45576</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.34583333333333333</v>
+      <c r="D16">
+        <f>A16-DATE(YEAR(A16),1,1)+1</f>
+        <v>285</v>
+      </c>
+      <c r="E16">
+        <f>WEEKNUM(A16)</f>
+        <v>41</v>
       </c>
       <c r="F16">
         <v>241</v>
@@ -893,21 +908,22 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>289</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>42</v>
+      <c r="A17" s="1">
+        <v>45580</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.34722222222222221</v>
       </c>
       <c r="C17" s="3">
         <v>45580</v>
       </c>
-      <c r="D17" s="1">
-        <v>45580</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.34722222222222221</v>
+      <c r="D17">
+        <f>A17-DATE(YEAR(A17),1,1)+1</f>
+        <v>289</v>
+      </c>
+      <c r="E17">
+        <f>WEEKNUM(A17)</f>
+        <v>42</v>
       </c>
       <c r="F17">
         <v>476</v>
@@ -923,21 +939,22 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>291</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>42</v>
+      <c r="A18" s="1">
+        <v>45582</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.34097222222222223</v>
       </c>
       <c r="C18" s="3">
         <v>45582</v>
       </c>
-      <c r="D18" s="1">
-        <v>45582</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.34097222222222223</v>
+      <c r="D18">
+        <f>A18-DATE(YEAR(A18),1,1)+1</f>
+        <v>291</v>
+      </c>
+      <c r="E18">
+        <f>WEEKNUM(A18)</f>
+        <v>42</v>
       </c>
       <c r="F18">
         <v>316</v>
@@ -953,21 +970,22 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>295</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>43</v>
+      <c r="A19" s="1">
+        <v>45586</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.34583333333333333</v>
       </c>
       <c r="C19" s="3">
         <v>45586</v>
       </c>
-      <c r="D19" s="1">
-        <v>45586</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.34583333333333333</v>
+      <c r="D19">
+        <f>A19-DATE(YEAR(A19),1,1)+1</f>
+        <v>295</v>
+      </c>
+      <c r="E19">
+        <f>WEEKNUM(A19)</f>
+        <v>43</v>
       </c>
       <c r="F19">
         <v>124</v>
@@ -983,21 +1001,22 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>296</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>43</v>
+      <c r="A20" s="1">
+        <v>45587</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.35416666666666669</v>
       </c>
       <c r="C20" s="3">
         <v>45587</v>
       </c>
-      <c r="D20" s="1">
-        <v>45587</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.35416666666666669</v>
+      <c r="D20">
+        <f>A20-DATE(YEAR(A20),1,1)+1</f>
+        <v>296</v>
+      </c>
+      <c r="E20">
+        <f>WEEKNUM(A20)</f>
+        <v>43</v>
       </c>
       <c r="F20">
         <v>600</v>
@@ -1013,21 +1032,22 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>297</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>43</v>
+      <c r="A21" s="1">
+        <v>45588</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.34861111111111109</v>
       </c>
       <c r="C21" s="3">
         <v>45588</v>
       </c>
-      <c r="D21" s="1">
-        <v>45588</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.34861111111111109</v>
+      <c r="D21">
+        <f>A21-DATE(YEAR(A21),1,1)+1</f>
+        <v>297</v>
+      </c>
+      <c r="E21">
+        <f>WEEKNUM(A21)</f>
+        <v>43</v>
       </c>
       <c r="F21">
         <v>204</v>
@@ -1043,21 +1063,22 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>298</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>43</v>
+      <c r="A22" s="1">
+        <v>45589</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.36249999999999999</v>
       </c>
       <c r="C22" s="3">
         <v>45589</v>
       </c>
-      <c r="D22" s="1">
-        <v>45589</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.36249999999999999</v>
+      <c r="D22">
+        <f>A22-DATE(YEAR(A22),1,1)+1</f>
+        <v>298</v>
+      </c>
+      <c r="E22">
+        <f>WEEKNUM(A22)</f>
+        <v>43</v>
       </c>
       <c r="F22">
         <v>493</v>
@@ -1073,21 +1094,22 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>303</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="0"/>
-        <v>44</v>
+      <c r="A23" s="1">
+        <v>45594</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.38263888888888886</v>
       </c>
       <c r="C23" s="3">
         <v>45594</v>
       </c>
-      <c r="D23" s="1">
-        <v>45594</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.38263888888888886</v>
+      <c r="D23">
+        <f>A23-DATE(YEAR(A23),1,1)+1</f>
+        <v>303</v>
+      </c>
+      <c r="E23">
+        <f>WEEKNUM(A23)</f>
+        <v>44</v>
       </c>
       <c r="F23">
         <v>257</v>
@@ -1103,21 +1125,22 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>304</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="0"/>
-        <v>44</v>
+      <c r="A24" s="1">
+        <v>45595</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.35138888888888886</v>
       </c>
       <c r="C24" s="3">
         <v>45595</v>
       </c>
-      <c r="D24" s="1">
-        <v>45595</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0.35138888888888886</v>
+      <c r="D24">
+        <f>A24-DATE(YEAR(A24),1,1)+1</f>
+        <v>304</v>
+      </c>
+      <c r="E24">
+        <f>WEEKNUM(A24)</f>
+        <v>44</v>
       </c>
       <c r="F24">
         <v>179</v>
@@ -1133,21 +1156,22 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>306</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="0"/>
-        <v>44</v>
+      <c r="A25" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.35</v>
       </c>
       <c r="C25" s="3">
         <v>45597</v>
       </c>
-      <c r="D25" s="1">
-        <v>45597</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0.35</v>
+      <c r="D25">
+        <f>A25-DATE(YEAR(A25),1,1)+1</f>
+        <v>306</v>
+      </c>
+      <c r="E25">
+        <f>WEEKNUM(A25)</f>
+        <v>44</v>
       </c>
       <c r="F25">
         <v>115</v>
@@ -1163,21 +1187,22 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>309</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="0"/>
-        <v>45</v>
+      <c r="A26" s="1">
+        <v>45600</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.35486111111111113</v>
       </c>
       <c r="C26" s="3">
         <v>45600</v>
       </c>
-      <c r="D26" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0.35486111111111113</v>
+      <c r="D26">
+        <f>A26-DATE(YEAR(A26),1,1)+1</f>
+        <v>309</v>
+      </c>
+      <c r="E26">
+        <f>WEEKNUM(A26)</f>
+        <v>45</v>
       </c>
       <c r="F26">
         <v>815</v>
@@ -1193,21 +1218,22 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>310</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="0"/>
-        <v>45</v>
+      <c r="A27" s="1">
+        <v>45601</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.35208333333333336</v>
       </c>
       <c r="C27" s="3">
         <v>45601</v>
       </c>
-      <c r="D27" s="1">
-        <v>45601</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0.35208333333333336</v>
+      <c r="D27">
+        <f>A27-DATE(YEAR(A27),1,1)+1</f>
+        <v>310</v>
+      </c>
+      <c r="E27">
+        <f>WEEKNUM(A27)</f>
+        <v>45</v>
       </c>
       <c r="F27">
         <v>382</v>
@@ -1223,21 +1249,22 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>311</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="0"/>
-        <v>45</v>
+      <c r="A28" s="1">
+        <v>45602</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.36805555555555558</v>
       </c>
       <c r="C28" s="3">
         <v>45602</v>
       </c>
-      <c r="D28" s="1">
-        <v>45602</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0.36805555555555558</v>
+      <c r="D28">
+        <f>A28-DATE(YEAR(A28),1,1)+1</f>
+        <v>311</v>
+      </c>
+      <c r="E28">
+        <f>WEEKNUM(A28)</f>
+        <v>45</v>
       </c>
       <c r="F28">
         <v>876</v>
@@ -1253,21 +1280,22 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>312</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="0"/>
-        <v>45</v>
+      <c r="A29" s="1">
+        <v>45603</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.35138888888888886</v>
       </c>
       <c r="C29" s="3">
         <v>45603</v>
       </c>
-      <c r="D29" s="1">
-        <v>45603</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0.35138888888888886</v>
+      <c r="D29">
+        <f>A29-DATE(YEAR(A29),1,1)+1</f>
+        <v>312</v>
+      </c>
+      <c r="E29">
+        <f>WEEKNUM(A29)</f>
+        <v>45</v>
       </c>
       <c r="F29">
         <v>315</v>
@@ -1283,21 +1311,22 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>313</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="0"/>
-        <v>45</v>
+      <c r="A30" s="1">
+        <v>45604</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.60069444444444442</v>
       </c>
       <c r="C30" s="3">
         <v>45604</v>
       </c>
-      <c r="D30" s="1">
-        <v>45604</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0.60069444444444442</v>
+      <c r="D30">
+        <f>A30-DATE(YEAR(A30),1,1)+1</f>
+        <v>313</v>
+      </c>
+      <c r="E30">
+        <f>WEEKNUM(A30)</f>
+        <v>45</v>
       </c>
       <c r="F30">
         <v>1321</v>
@@ -1313,21 +1342,22 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>315</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="0"/>
-        <v>46</v>
+      <c r="A31" s="1">
+        <v>45607</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.34027777777777779</v>
       </c>
       <c r="C31" s="3">
         <v>45607</v>
       </c>
-      <c r="D31" s="1">
-        <v>45607</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0.34027777777777779</v>
+      <c r="D31">
+        <f>A31-DATE(YEAR(A31),1,1)+1</f>
+        <v>316</v>
+      </c>
+      <c r="E31">
+        <f>WEEKNUM(A31)</f>
+        <v>46</v>
       </c>
       <c r="F31">
         <v>148</v>
@@ -1343,21 +1373,22 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>316</v>
-      </c>
-      <c r="B32">
-        <f t="shared" si="0"/>
-        <v>46</v>
+      <c r="A32" s="1">
+        <v>45608</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.34652777777777777</v>
       </c>
       <c r="C32" s="3">
         <v>45608</v>
       </c>
-      <c r="D32" s="1">
-        <v>45608</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0.34652777777777777</v>
+      <c r="D32">
+        <f>A32-DATE(YEAR(A32),1,1)+1</f>
+        <v>317</v>
+      </c>
+      <c r="E32">
+        <f>WEEKNUM(A32)</f>
+        <v>46</v>
       </c>
       <c r="F32">
         <v>171</v>
@@ -1373,21 +1404,22 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>317</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="0"/>
-        <v>46</v>
+      <c r="A33" s="1">
+        <v>45609</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.34861111111111109</v>
       </c>
       <c r="C33" s="3">
         <v>45609</v>
       </c>
-      <c r="D33" s="1">
-        <v>45609</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0.34861111111111109</v>
+      <c r="D33">
+        <f>A33-DATE(YEAR(A33),1,1)+1</f>
+        <v>318</v>
+      </c>
+      <c r="E33">
+        <f>WEEKNUM(A33)</f>
+        <v>46</v>
       </c>
       <c r="F33">
         <v>171</v>
@@ -1403,22 +1435,23 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>318</v>
-      </c>
-      <c r="B34">
-        <f t="shared" si="0"/>
+      <c r="A34" s="1">
+        <v>45610</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.34513888888888888</v>
+      </c>
+      <c r="C34" s="3">
+        <f>A34</f>
+        <v>45610</v>
+      </c>
+      <c r="D34">
+        <f>A34-DATE(YEAR(A34),1,1)+1</f>
+        <v>319</v>
+      </c>
+      <c r="E34">
+        <f>WEEKNUM(A34)</f>
         <v>46</v>
-      </c>
-      <c r="C34" s="3">
-        <f>D34</f>
-        <v>45610</v>
-      </c>
-      <c r="D34" s="1">
-        <v>45610</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0.34513888888888888</v>
       </c>
       <c r="F34">
         <v>207</v>
@@ -1434,21 +1467,22 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>319</v>
-      </c>
-      <c r="B35">
-        <f t="shared" si="0"/>
-        <v>46</v>
+      <c r="A35" s="1">
+        <v>45611</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.38055555555555554</v>
       </c>
       <c r="C35" s="3">
         <v>45611</v>
       </c>
-      <c r="D35" s="1">
-        <v>45611</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0.38055555555555554</v>
+      <c r="D35">
+        <f>A35-DATE(YEAR(A35),1,1)+1</f>
+        <v>320</v>
+      </c>
+      <c r="E35">
+        <f>WEEKNUM(A35)</f>
+        <v>46</v>
       </c>
       <c r="F35">
         <v>226</v>
@@ -1461,6 +1495,37 @@
       </c>
       <c r="I35">
         <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>45615</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="C36" s="3">
+        <v>45615</v>
+      </c>
+      <c r="D36">
+        <f>A36-DATE(YEAR(A36),1,1)+1</f>
+        <v>324</v>
+      </c>
+      <c r="E36">
+        <f>WEEKNUM(A36)</f>
+        <v>47</v>
+      </c>
+      <c r="F36">
+        <v>317</v>
+      </c>
+      <c r="G36">
+        <v>903130</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/lecture/WiSe_Spezielle_Statistik/bikes.xlsx
+++ b/lecture/WiSe_Spezielle_Statistik/bikes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/teaching/lecture/WiSe_Spezielle_Statistik/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB66677-ADEB-DF49-92B0-A0D4A02F90A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DA665B-C33E-5F42-81E0-2975A9319A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12220" yWindow="840" windowWidth="23720" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1528,6 +1528,37 @@
         <v>3</v>
       </c>
     </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>45616</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.34791666666666665</v>
+      </c>
+      <c r="C37" s="3">
+        <v>45616</v>
+      </c>
+      <c r="D37">
+        <f>A37-DATE(YEAR(A37),1,1)+1</f>
+        <v>325</v>
+      </c>
+      <c r="E37">
+        <f>WEEKNUM(A37)</f>
+        <v>47</v>
+      </c>
+      <c r="F37">
+        <v>562</v>
+      </c>
+      <c r="G37">
+        <v>905969</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lecture/WiSe_Spezielle_Statistik/bikes.xlsx
+++ b/lecture/WiSe_Spezielle_Statistik/bikes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/teaching/lecture/WiSe_Spezielle_Statistik/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\teaching\lecture\WiSe_Spezielle_Statistik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DA665B-C33E-5F42-81E0-2975A9319A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26147F39-4CBF-4771-83E1-ADA14D52619E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12220" yWindow="840" windowWidth="23720" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="0" windowWidth="18324" windowHeight="12504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -386,24 +386,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,7 +432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45551</v>
       </c>
@@ -440,15 +440,15 @@
         <v>0.34652777777777777</v>
       </c>
       <c r="C2" s="3">
-        <f>A2</f>
+        <f t="shared" ref="C2:C11" si="0">A2</f>
         <v>45551</v>
       </c>
       <c r="D2">
-        <f>A2-DATE(YEAR(A2),1,1)+1</f>
+        <f t="shared" ref="D2:D38" si="1">A2-DATE(YEAR(A2),1,1)+1</f>
         <v>260</v>
       </c>
       <c r="E2">
-        <f>WEEKNUM(A2)</f>
+        <f t="shared" ref="E2:E38" si="2">WEEKNUM(A2)</f>
         <v>38</v>
       </c>
       <c r="F2">
@@ -464,7 +464,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45552</v>
       </c>
@@ -472,15 +472,15 @@
         <v>0.34861111111111109</v>
       </c>
       <c r="C3" s="3">
-        <f>A3</f>
+        <f t="shared" si="0"/>
         <v>45552</v>
       </c>
       <c r="D3">
-        <f>A3-DATE(YEAR(A3),1,1)+1</f>
+        <f t="shared" si="1"/>
         <v>261</v>
       </c>
       <c r="E3">
-        <f>WEEKNUM(A3)</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="F3">
@@ -496,7 +496,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45553</v>
       </c>
@@ -504,15 +504,15 @@
         <v>0.34583333333333333</v>
       </c>
       <c r="C4" s="3">
-        <f>A4</f>
+        <f t="shared" si="0"/>
         <v>45553</v>
       </c>
       <c r="D4">
-        <f>A4-DATE(YEAR(A4),1,1)+1</f>
+        <f t="shared" si="1"/>
         <v>262</v>
       </c>
       <c r="E4">
-        <f>WEEKNUM(A4)</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="F4">
@@ -528,7 +528,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45554</v>
       </c>
@@ -536,15 +536,15 @@
         <v>0.34583333333333333</v>
       </c>
       <c r="C5" s="3">
-        <f>A5</f>
+        <f t="shared" si="0"/>
         <v>45554</v>
       </c>
       <c r="D5">
-        <f>A5-DATE(YEAR(A5),1,1)+1</f>
+        <f t="shared" si="1"/>
         <v>263</v>
       </c>
       <c r="E5">
-        <f>WEEKNUM(A5)</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="F5">
@@ -560,7 +560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45555</v>
       </c>
@@ -568,15 +568,15 @@
         <v>0.34444444444444444</v>
       </c>
       <c r="C6" s="3">
-        <f>A6</f>
+        <f t="shared" si="0"/>
         <v>45555</v>
       </c>
       <c r="D6">
-        <f>A6-DATE(YEAR(A6),1,1)+1</f>
+        <f t="shared" si="1"/>
         <v>264</v>
       </c>
       <c r="E6">
-        <f>WEEKNUM(A6)</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="F6">
@@ -592,7 +592,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45558</v>
       </c>
@@ -600,15 +600,15 @@
         <v>0.34583333333333333</v>
       </c>
       <c r="C7" s="3">
-        <f>A7</f>
+        <f t="shared" si="0"/>
         <v>45558</v>
       </c>
       <c r="D7">
-        <f>A7-DATE(YEAR(A7),1,1)+1</f>
+        <f t="shared" si="1"/>
         <v>267</v>
       </c>
       <c r="E7">
-        <f>WEEKNUM(A7)</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="F7">
@@ -624,7 +624,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45559</v>
       </c>
@@ -632,15 +632,15 @@
         <v>0.82222222222222219</v>
       </c>
       <c r="C8" s="3">
-        <f>A8</f>
+        <f t="shared" si="0"/>
         <v>45559</v>
       </c>
       <c r="D8">
-        <f>A8-DATE(YEAR(A8),1,1)+1</f>
+        <f t="shared" si="1"/>
         <v>268</v>
       </c>
       <c r="E8">
-        <f>WEEKNUM(A8)</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="F8">
@@ -656,7 +656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45565</v>
       </c>
@@ -664,15 +664,15 @@
         <v>0.34583333333333333</v>
       </c>
       <c r="C9" s="3">
-        <f>A9</f>
+        <f t="shared" si="0"/>
         <v>45565</v>
       </c>
       <c r="D9">
-        <f>A9-DATE(YEAR(A9),1,1)+1</f>
+        <f t="shared" si="1"/>
         <v>274</v>
       </c>
       <c r="E9">
-        <f>WEEKNUM(A9)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="F9">
@@ -688,7 +688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45566</v>
       </c>
@@ -696,15 +696,15 @@
         <v>0.34583333333333333</v>
       </c>
       <c r="C10" s="3">
-        <f>A10</f>
+        <f t="shared" si="0"/>
         <v>45566</v>
       </c>
       <c r="D10">
-        <f>A10-DATE(YEAR(A10),1,1)+1</f>
+        <f t="shared" si="1"/>
         <v>275</v>
       </c>
       <c r="E10">
-        <f>WEEKNUM(A10)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="F10">
@@ -720,7 +720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45567</v>
       </c>
@@ -728,15 +728,15 @@
         <v>0.37847222222222221</v>
       </c>
       <c r="C11" s="3">
-        <f>A11</f>
+        <f t="shared" si="0"/>
         <v>45567</v>
       </c>
       <c r="D11">
-        <f>A11-DATE(YEAR(A11),1,1)+1</f>
+        <f t="shared" si="1"/>
         <v>276</v>
       </c>
       <c r="E11">
-        <f>WEEKNUM(A11)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="F11">
@@ -752,7 +752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45572</v>
       </c>
@@ -763,11 +763,11 @@
         <v>45572</v>
       </c>
       <c r="D12">
-        <f>A12-DATE(YEAR(A12),1,1)+1</f>
+        <f t="shared" si="1"/>
         <v>281</v>
       </c>
       <c r="E12">
-        <f>WEEKNUM(A12)</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="F12">
@@ -783,7 +783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45573</v>
       </c>
@@ -794,11 +794,11 @@
         <v>45573</v>
       </c>
       <c r="D13">
-        <f>A13-DATE(YEAR(A13),1,1)+1</f>
+        <f t="shared" si="1"/>
         <v>282</v>
       </c>
       <c r="E13">
-        <f>WEEKNUM(A13)</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="F13">
@@ -814,7 +814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45574</v>
       </c>
@@ -825,11 +825,11 @@
         <v>45574</v>
       </c>
       <c r="D14">
-        <f>A14-DATE(YEAR(A14),1,1)+1</f>
+        <f t="shared" si="1"/>
         <v>283</v>
       </c>
       <c r="E14">
-        <f>WEEKNUM(A14)</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="F14">
@@ -845,7 +845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45575</v>
       </c>
@@ -856,11 +856,11 @@
         <v>45575</v>
       </c>
       <c r="D15">
-        <f>A15-DATE(YEAR(A15),1,1)+1</f>
+        <f t="shared" si="1"/>
         <v>284</v>
       </c>
       <c r="E15">
-        <f>WEEKNUM(A15)</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="F15">
@@ -876,7 +876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45576</v>
       </c>
@@ -887,11 +887,11 @@
         <v>45576</v>
       </c>
       <c r="D16">
-        <f>A16-DATE(YEAR(A16),1,1)+1</f>
+        <f t="shared" si="1"/>
         <v>285</v>
       </c>
       <c r="E16">
-        <f>WEEKNUM(A16)</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="F16">
@@ -907,7 +907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45580</v>
       </c>
@@ -918,11 +918,11 @@
         <v>45580</v>
       </c>
       <c r="D17">
-        <f>A17-DATE(YEAR(A17),1,1)+1</f>
+        <f t="shared" si="1"/>
         <v>289</v>
       </c>
       <c r="E17">
-        <f>WEEKNUM(A17)</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="F17">
@@ -938,7 +938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45582</v>
       </c>
@@ -949,11 +949,11 @@
         <v>45582</v>
       </c>
       <c r="D18">
-        <f>A18-DATE(YEAR(A18),1,1)+1</f>
+        <f t="shared" si="1"/>
         <v>291</v>
       </c>
       <c r="E18">
-        <f>WEEKNUM(A18)</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="F18">
@@ -969,7 +969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45586</v>
       </c>
@@ -980,11 +980,11 @@
         <v>45586</v>
       </c>
       <c r="D19">
-        <f>A19-DATE(YEAR(A19),1,1)+1</f>
+        <f t="shared" si="1"/>
         <v>295</v>
       </c>
       <c r="E19">
-        <f>WEEKNUM(A19)</f>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="F19">
@@ -1000,7 +1000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45587</v>
       </c>
@@ -1011,11 +1011,11 @@
         <v>45587</v>
       </c>
       <c r="D20">
-        <f>A20-DATE(YEAR(A20),1,1)+1</f>
+        <f t="shared" si="1"/>
         <v>296</v>
       </c>
       <c r="E20">
-        <f>WEEKNUM(A20)</f>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="F20">
@@ -1031,7 +1031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45588</v>
       </c>
@@ -1042,11 +1042,11 @@
         <v>45588</v>
       </c>
       <c r="D21">
-        <f>A21-DATE(YEAR(A21),1,1)+1</f>
+        <f t="shared" si="1"/>
         <v>297</v>
       </c>
       <c r="E21">
-        <f>WEEKNUM(A21)</f>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="F21">
@@ -1062,7 +1062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45589</v>
       </c>
@@ -1073,11 +1073,11 @@
         <v>45589</v>
       </c>
       <c r="D22">
-        <f>A22-DATE(YEAR(A22),1,1)+1</f>
+        <f t="shared" si="1"/>
         <v>298</v>
       </c>
       <c r="E22">
-        <f>WEEKNUM(A22)</f>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="F22">
@@ -1093,7 +1093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45594</v>
       </c>
@@ -1104,11 +1104,11 @@
         <v>45594</v>
       </c>
       <c r="D23">
-        <f>A23-DATE(YEAR(A23),1,1)+1</f>
+        <f t="shared" si="1"/>
         <v>303</v>
       </c>
       <c r="E23">
-        <f>WEEKNUM(A23)</f>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="F23">
@@ -1124,7 +1124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45595</v>
       </c>
@@ -1135,11 +1135,11 @@
         <v>45595</v>
       </c>
       <c r="D24">
-        <f>A24-DATE(YEAR(A24),1,1)+1</f>
+        <f t="shared" si="1"/>
         <v>304</v>
       </c>
       <c r="E24">
-        <f>WEEKNUM(A24)</f>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="F24">
@@ -1155,7 +1155,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45597</v>
       </c>
@@ -1166,11 +1166,11 @@
         <v>45597</v>
       </c>
       <c r="D25">
-        <f>A25-DATE(YEAR(A25),1,1)+1</f>
+        <f t="shared" si="1"/>
         <v>306</v>
       </c>
       <c r="E25">
-        <f>WEEKNUM(A25)</f>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="F25">
@@ -1186,7 +1186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45600</v>
       </c>
@@ -1197,11 +1197,11 @@
         <v>45600</v>
       </c>
       <c r="D26">
-        <f>A26-DATE(YEAR(A26),1,1)+1</f>
+        <f t="shared" si="1"/>
         <v>309</v>
       </c>
       <c r="E26">
-        <f>WEEKNUM(A26)</f>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="F26">
@@ -1217,7 +1217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45601</v>
       </c>
@@ -1228,11 +1228,11 @@
         <v>45601</v>
       </c>
       <c r="D27">
-        <f>A27-DATE(YEAR(A27),1,1)+1</f>
+        <f t="shared" si="1"/>
         <v>310</v>
       </c>
       <c r="E27">
-        <f>WEEKNUM(A27)</f>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="F27">
@@ -1248,7 +1248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45602</v>
       </c>
@@ -1259,11 +1259,11 @@
         <v>45602</v>
       </c>
       <c r="D28">
-        <f>A28-DATE(YEAR(A28),1,1)+1</f>
+        <f t="shared" si="1"/>
         <v>311</v>
       </c>
       <c r="E28">
-        <f>WEEKNUM(A28)</f>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="F28">
@@ -1279,7 +1279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45603</v>
       </c>
@@ -1290,11 +1290,11 @@
         <v>45603</v>
       </c>
       <c r="D29">
-        <f>A29-DATE(YEAR(A29),1,1)+1</f>
+        <f t="shared" si="1"/>
         <v>312</v>
       </c>
       <c r="E29">
-        <f>WEEKNUM(A29)</f>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="F29">
@@ -1310,7 +1310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45604</v>
       </c>
@@ -1321,11 +1321,11 @@
         <v>45604</v>
       </c>
       <c r="D30">
-        <f>A30-DATE(YEAR(A30),1,1)+1</f>
+        <f t="shared" si="1"/>
         <v>313</v>
       </c>
       <c r="E30">
-        <f>WEEKNUM(A30)</f>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="F30">
@@ -1341,7 +1341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45607</v>
       </c>
@@ -1352,11 +1352,11 @@
         <v>45607</v>
       </c>
       <c r="D31">
-        <f>A31-DATE(YEAR(A31),1,1)+1</f>
+        <f t="shared" si="1"/>
         <v>316</v>
       </c>
       <c r="E31">
-        <f>WEEKNUM(A31)</f>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="F31">
@@ -1372,7 +1372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45608</v>
       </c>
@@ -1383,11 +1383,11 @@
         <v>45608</v>
       </c>
       <c r="D32">
-        <f>A32-DATE(YEAR(A32),1,1)+1</f>
+        <f t="shared" si="1"/>
         <v>317</v>
       </c>
       <c r="E32">
-        <f>WEEKNUM(A32)</f>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="F32">
@@ -1403,7 +1403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>45609</v>
       </c>
@@ -1414,11 +1414,11 @@
         <v>45609</v>
       </c>
       <c r="D33">
-        <f>A33-DATE(YEAR(A33),1,1)+1</f>
+        <f t="shared" si="1"/>
         <v>318</v>
       </c>
       <c r="E33">
-        <f>WEEKNUM(A33)</f>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="F33">
@@ -1434,7 +1434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>45610</v>
       </c>
@@ -1446,11 +1446,11 @@
         <v>45610</v>
       </c>
       <c r="D34">
-        <f>A34-DATE(YEAR(A34),1,1)+1</f>
+        <f t="shared" si="1"/>
         <v>319</v>
       </c>
       <c r="E34">
-        <f>WEEKNUM(A34)</f>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="F34">
@@ -1466,7 +1466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>45611</v>
       </c>
@@ -1477,11 +1477,11 @@
         <v>45611</v>
       </c>
       <c r="D35">
-        <f>A35-DATE(YEAR(A35),1,1)+1</f>
+        <f t="shared" si="1"/>
         <v>320</v>
       </c>
       <c r="E35">
-        <f>WEEKNUM(A35)</f>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="F35">
@@ -1497,7 +1497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>45615</v>
       </c>
@@ -1508,11 +1508,11 @@
         <v>45615</v>
       </c>
       <c r="D36">
-        <f>A36-DATE(YEAR(A36),1,1)+1</f>
+        <f t="shared" si="1"/>
         <v>324</v>
       </c>
       <c r="E36">
-        <f>WEEKNUM(A36)</f>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="F36">
@@ -1528,7 +1528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>45616</v>
       </c>
@@ -1539,11 +1539,11 @@
         <v>45616</v>
       </c>
       <c r="D37">
-        <f>A37-DATE(YEAR(A37),1,1)+1</f>
+        <f t="shared" si="1"/>
         <v>325</v>
       </c>
       <c r="E37">
-        <f>WEEKNUM(A37)</f>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="F37">
@@ -1557,6 +1557,37 @@
       </c>
       <c r="I37">
         <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>45617</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.35902777777777778</v>
+      </c>
+      <c r="C38" s="3">
+        <v>45617</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>326</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="F38">
+        <v>677</v>
+      </c>
+      <c r="G38">
+        <v>909047</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/lecture/WiSe_Spezielle_Statistik/bikes.xlsx
+++ b/lecture/WiSe_Spezielle_Statistik/bikes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\teaching\lecture\WiSe_Spezielle_Statistik\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/teaching/lecture/WiSe_Spezielle_Statistik/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26147F39-4CBF-4771-83E1-ADA14D52619E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84081207-C4AC-984F-9B19-5EE253767DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="0" windowWidth="18324" windowHeight="12504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19660" yWindow="4000" windowWidth="18320" windowHeight="12500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -386,24 +386,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,7 +432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>45551</v>
       </c>
@@ -444,11 +444,11 @@
         <v>45551</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D38" si="1">A2-DATE(YEAR(A2),1,1)+1</f>
+        <f t="shared" ref="D2:D39" si="1">A2-DATE(YEAR(A2),1,1)+1</f>
         <v>260</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E38" si="2">WEEKNUM(A2)</f>
+        <f t="shared" ref="E2:E39" si="2">WEEKNUM(A2)</f>
         <v>38</v>
       </c>
       <c r="F2">
@@ -464,7 +464,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>45552</v>
       </c>
@@ -496,7 +496,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>45553</v>
       </c>
@@ -528,7 +528,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>45554</v>
       </c>
@@ -560,7 +560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>45555</v>
       </c>
@@ -592,7 +592,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>45558</v>
       </c>
@@ -624,7 +624,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>45559</v>
       </c>
@@ -656,7 +656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>45565</v>
       </c>
@@ -688,7 +688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>45566</v>
       </c>
@@ -720,7 +720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>45567</v>
       </c>
@@ -752,7 +752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>45572</v>
       </c>
@@ -783,7 +783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>45573</v>
       </c>
@@ -814,7 +814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>45574</v>
       </c>
@@ -845,7 +845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>45575</v>
       </c>
@@ -876,7 +876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>45576</v>
       </c>
@@ -907,7 +907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>45580</v>
       </c>
@@ -938,7 +938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>45582</v>
       </c>
@@ -969,7 +969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>45586</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>45587</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>45588</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>45589</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>45594</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>45595</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>45597</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>45600</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>45601</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>45602</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>45603</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>45604</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>45607</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>45608</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>45609</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>45610</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>45611</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>45615</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>45616</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>45617</v>
       </c>
@@ -1588,6 +1588,37 @@
       </c>
       <c r="I38">
         <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>45618</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.34861111111111109</v>
+      </c>
+      <c r="C39" s="3">
+        <v>45618</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>327</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="F39">
+        <v>573</v>
+      </c>
+      <c r="G39">
+        <v>912295</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/lecture/WiSe_Spezielle_Statistik/bikes.xlsx
+++ b/lecture/WiSe_Spezielle_Statistik/bikes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/teaching/lecture/WiSe_Spezielle_Statistik/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84081207-C4AC-984F-9B19-5EE253767DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC46D267-4A4B-F541-9C21-F02123A1B427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19660" yWindow="4000" windowWidth="18320" windowHeight="12500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -444,11 +444,11 @@
         <v>45551</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D39" si="1">A2-DATE(YEAR(A2),1,1)+1</f>
+        <f t="shared" ref="D2:D42" si="1">A2-DATE(YEAR(A2),1,1)+1</f>
         <v>260</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E39" si="2">WEEKNUM(A2)</f>
+        <f t="shared" ref="E2:E42" si="2">WEEKNUM(A2)</f>
         <v>38</v>
       </c>
       <c r="F2">
@@ -1619,6 +1619,99 @@
       </c>
       <c r="I39">
         <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>45621</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="C40" s="3">
+        <v>45621</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>330</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="F40">
+        <v>177</v>
+      </c>
+      <c r="G40">
+        <v>917531</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>45622</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.35208333333333336</v>
+      </c>
+      <c r="C41" s="3">
+        <v>45622</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>331</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="F41">
+        <v>189</v>
+      </c>
+      <c r="G41">
+        <v>919416</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>45623</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.34861111111111109</v>
+      </c>
+      <c r="C42" s="3">
+        <v>45623</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>332</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="F42">
+        <v>195</v>
+      </c>
+      <c r="G42">
+        <v>921711</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/lecture/WiSe_Spezielle_Statistik/bikes.xlsx
+++ b/lecture/WiSe_Spezielle_Statistik/bikes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/teaching/lecture/WiSe_Spezielle_Statistik/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC46D267-4A4B-F541-9C21-F02123A1B427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0609232D-011D-9640-A5EA-B8E298FA31E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19660" yWindow="4000" windowWidth="18320" windowHeight="12500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -444,11 +444,11 @@
         <v>45551</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D42" si="1">A2-DATE(YEAR(A2),1,1)+1</f>
+        <f t="shared" ref="D2:D44" si="1">A2-DATE(YEAR(A2),1,1)+1</f>
         <v>260</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E42" si="2">WEEKNUM(A2)</f>
+        <f t="shared" ref="E2:E44" si="2">WEEKNUM(A2)</f>
         <v>38</v>
       </c>
       <c r="F2">
@@ -1712,6 +1712,69 @@
       </c>
       <c r="I42">
         <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>45624</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.34583333333333333</v>
+      </c>
+      <c r="C43" s="3">
+        <v>45624</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>333</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="F43">
+        <v>168</v>
+      </c>
+      <c r="G43">
+        <v>923527</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.35625000000000001</v>
+      </c>
+      <c r="C44" s="3">
+        <f>A44</f>
+        <v>45625</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>334</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="F44">
+        <v>200</v>
+      </c>
+      <c r="G44">
+        <v>925599</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/lecture/WiSe_Spezielle_Statistik/bikes.xlsx
+++ b/lecture/WiSe_Spezielle_Statistik/bikes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/teaching/lecture/WiSe_Spezielle_Statistik/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0609232D-011D-9640-A5EA-B8E298FA31E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2477A5-F8EF-E141-BEB1-6C85FD14020A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19660" yWindow="4000" windowWidth="18320" windowHeight="12500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18180" yWindow="4000" windowWidth="19800" windowHeight="12820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -386,9 +386,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
@@ -444,11 +444,11 @@
         <v>45551</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D44" si="1">A2-DATE(YEAR(A2),1,1)+1</f>
+        <f t="shared" ref="D2:D45" si="1">A2-DATE(YEAR(A2),1,1)+1</f>
         <v>260</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E44" si="2">WEEKNUM(A2)</f>
+        <f t="shared" ref="E2:E45" si="2">WEEKNUM(A2)</f>
         <v>38</v>
       </c>
       <c r="F2">
@@ -1775,6 +1775,37 @@
       </c>
       <c r="I44">
         <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.3659722222222222</v>
+      </c>
+      <c r="C45" s="3">
+        <v>45628</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>337</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="F45">
+        <v>404</v>
+      </c>
+      <c r="G45">
+        <v>932114</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/lecture/WiSe_Spezielle_Statistik/bikes.xlsx
+++ b/lecture/WiSe_Spezielle_Statistik/bikes.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/teaching/lecture/WiSe_Spezielle_Statistik/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2477A5-F8EF-E141-BEB1-6C85FD14020A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29B53E7-0793-7A42-88C7-1AC7B9557BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18180" yWindow="4000" windowWidth="19800" windowHeight="12820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17520" yWindow="3820" windowWidth="22780" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -386,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="159" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -444,11 +445,11 @@
         <v>45551</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D45" si="1">A2-DATE(YEAR(A2),1,1)+1</f>
+        <f t="shared" ref="D2:D49" si="1">A2-DATE(YEAR(A2),1,1)+1</f>
         <v>260</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E45" si="2">WEEKNUM(A2)</f>
+        <f t="shared" ref="E2:E49" si="2">WEEKNUM(A2)</f>
         <v>38</v>
       </c>
       <c r="F2">
@@ -1808,7 +1809,145 @@
         <v>7</v>
       </c>
     </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>45629</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C46" s="3">
+        <v>45629</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>338</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="F46">
+        <v>182</v>
+      </c>
+      <c r="G46">
+        <v>934606</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>45630</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.35694444444444445</v>
+      </c>
+      <c r="C47" s="3">
+        <v>45630</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>339</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="F47">
+        <v>195</v>
+      </c>
+      <c r="G47">
+        <v>936768</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>45631</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.34652777777777777</v>
+      </c>
+      <c r="C48" s="3">
+        <v>45631</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>340</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="F48">
+        <v>267</v>
+      </c>
+      <c r="G48">
+        <v>939079</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>45632</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="C49" s="3">
+        <v>45632</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>341</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="F49">
+        <v>492</v>
+      </c>
+      <c r="G49">
+        <v>941420</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49333766-DF4C-CA4C-8BEF-182F1A1592DA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/lecture/WiSe_Spezielle_Statistik/bikes.xlsx
+++ b/lecture/WiSe_Spezielle_Statistik/bikes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/teaching/lecture/WiSe_Spezielle_Statistik/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29B53E7-0793-7A42-88C7-1AC7B9557BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3674DA1C-00F5-A943-9EDA-14EFC9FDA328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17520" yWindow="3820" windowWidth="22780" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15620" yWindow="3820" windowWidth="22780" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -387,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="159" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="159" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -445,11 +445,11 @@
         <v>45551</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D49" si="1">A2-DATE(YEAR(A2),1,1)+1</f>
+        <f t="shared" ref="D2:D50" si="1">A2-DATE(YEAR(A2),1,1)+1</f>
         <v>260</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E49" si="2">WEEKNUM(A2)</f>
+        <f t="shared" ref="E2:E50" si="2">WEEKNUM(A2)</f>
         <v>38</v>
       </c>
       <c r="F2">
@@ -1931,6 +1931,37 @@
       </c>
       <c r="I49">
         <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C50" s="3">
+        <v>45635</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>344</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F50">
+        <v>179</v>
+      </c>
+      <c r="G50">
+        <v>944268</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/lecture/WiSe_Spezielle_Statistik/bikes.xlsx
+++ b/lecture/WiSe_Spezielle_Statistik/bikes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/teaching/lecture/WiSe_Spezielle_Statistik/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3674DA1C-00F5-A943-9EDA-14EFC9FDA328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52E0E13-5784-D74B-8503-F13A0FFAFD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15620" yWindow="3820" windowWidth="22780" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="159" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="159" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -445,11 +445,11 @@
         <v>45551</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D50" si="1">A2-DATE(YEAR(A2),1,1)+1</f>
+        <f t="shared" ref="D2:D59" si="1">A2-DATE(YEAR(A2),1,1)+1</f>
         <v>260</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E50" si="2">WEEKNUM(A2)</f>
+        <f t="shared" ref="E2:E59" si="2">WEEKNUM(A2)</f>
         <v>38</v>
       </c>
       <c r="F2">
@@ -1962,6 +1962,210 @@
       </c>
       <c r="I50">
         <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>45636</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.35208333333333336</v>
+      </c>
+      <c r="C51" s="3">
+        <v>45636</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>345</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F51">
+        <v>172</v>
+      </c>
+      <c r="G51">
+        <v>946099</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>45638</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C52" s="3">
+        <v>45638</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>347</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F52">
+        <v>313</v>
+      </c>
+      <c r="G52">
+        <v>950573</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>45639</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.37430555555555556</v>
+      </c>
+      <c r="C53" s="3">
+        <v>45639</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>348</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F53">
+        <v>241</v>
+      </c>
+      <c r="G53">
+        <v>952659</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>45642</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.39027777777777778</v>
+      </c>
+      <c r="C54" s="3">
+        <v>45642</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>351</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="F54">
+        <v>535</v>
+      </c>
+      <c r="G54">
+        <v>958524</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>45643</v>
+      </c>
+      <c r="C55" s="3">
+        <v>45643</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>352</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>45644</v>
+      </c>
+      <c r="C56" s="3">
+        <v>45644</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>353</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>45645</v>
+      </c>
+      <c r="C57" s="3">
+        <v>45645</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>354</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>45646</v>
+      </c>
+      <c r="C58" s="3">
+        <v>45646</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>355</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>45657</v>
+      </c>
+      <c r="C59" s="3">
+        <v>45657</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>366</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="2"/>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/lecture/WiSe_Spezielle_Statistik/bikes.xlsx
+++ b/lecture/WiSe_Spezielle_Statistik/bikes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/teaching/lecture/WiSe_Spezielle_Statistik/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52E0E13-5784-D74B-8503-F13A0FFAFD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B446FA-DF90-F74E-9270-4807845F7C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15620" yWindow="3820" windowWidth="22780" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="159" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="159" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -445,11 +445,11 @@
         <v>45551</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D59" si="1">A2-DATE(YEAR(A2),1,1)+1</f>
+        <f t="shared" ref="D2:D58" si="1">A2-DATE(YEAR(A2),1,1)+1</f>
         <v>260</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E59" si="2">WEEKNUM(A2)</f>
+        <f t="shared" ref="E2:E58" si="2">WEEKNUM(A2)</f>
         <v>38</v>
       </c>
       <c r="F2">
@@ -2090,30 +2090,45 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>45643</v>
+        <v>45644</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0.35555555555555557</v>
       </c>
       <c r="C55" s="3">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="D55">
         <f t="shared" si="1"/>
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E55">
         <f t="shared" si="2"/>
         <v>51</v>
+      </c>
+      <c r="F55">
+        <v>199</v>
+      </c>
+      <c r="G55">
+        <v>962841</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="C56" s="3">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="D56">
         <f t="shared" si="1"/>
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E56">
         <f t="shared" si="2"/>
@@ -2122,14 +2137,14 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="C57" s="3">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="D57">
         <f t="shared" si="1"/>
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E57">
         <f t="shared" si="2"/>
@@ -2138,32 +2153,16 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>45646</v>
+        <v>45657</v>
       </c>
       <c r="C58" s="3">
-        <v>45646</v>
+        <v>45657</v>
       </c>
       <c r="D58">
         <f t="shared" si="1"/>
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="E58">
-        <f t="shared" si="2"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <v>45657</v>
-      </c>
-      <c r="C59" s="3">
-        <v>45657</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="1"/>
-        <v>366</v>
-      </c>
-      <c r="E59">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
